--- a/Results/Calculation/lda-partial-ner-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G2">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="H2">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I2">
         <v>0.8100000000000001</v>
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="G3">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H3">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="I3">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
+        <v>0.82</v>
+      </c>
+      <c r="H4">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.87</v>
-      </c>
-      <c r="I4">
-        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C5">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="G5">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H5">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I5">
         <v>0.88</v>

--- a/Results/Calculation/lda-partial-ner-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,25 +464,25 @@
         <v>203</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="G3">
         <v>0.9399999999999999</v>
       </c>
       <c r="H3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I3">
         <v>0.79</v>
-      </c>
-      <c r="I3">
-        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4">
         <v>278</v>
@@ -499,7 +499,7 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>0.8</v>
@@ -519,22 +519,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="H5">
         <v>0.78</v>
